--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_Crozet.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_Crozet.xlsx
@@ -12132,13 +12132,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B02E8D-5BC0-4C6C-B46E-29ED5CB0FE7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A70B3034-98DD-4BBE-BB7E-BB1500028B96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6CAA53E-D5B0-47EE-99B2-EA30DBF5544B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AFE044-3C14-4C32-B537-4BFB90D8D86A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{940E3A93-8DB2-460F-88CF-1CB849B2396E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7815C5F8-96A6-4226-B4D2-5597027CD20E}"/>
 </file>